--- a/zero.xlsx
+++ b/zero.xlsx
@@ -8,15 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\ドキュメント\GitHub\Tankyu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7180DB-471E-42EF-9B4D-27E60B36547A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B93BA-09DB-45E1-8171-F2391B0BF24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ランダム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0禁止ランダム</t>
+    <rPh sb="1" eb="3">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0優先Toba</t>
+    <rPh sb="1" eb="3">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,16 +366,2080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:29">
+      <c r="D2">
+        <v>0.984375</v>
+      </c>
+      <c r="E2">
+        <v>0.984375</v>
+      </c>
+      <c r="F2">
+        <v>0.984375</v>
+      </c>
+      <c r="G2">
+        <v>0.99609375</v>
+      </c>
+      <c r="H2">
+        <v>0.9921875</v>
+      </c>
+      <c r="I2">
+        <v>0.99609375</v>
+      </c>
+      <c r="J2">
+        <v>0.984375</v>
+      </c>
+      <c r="K2">
+        <v>0.9921875</v>
+      </c>
+      <c r="L2">
+        <v>0.9921875</v>
+      </c>
+      <c r="M2">
+        <v>0.99609375</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0.9921875</v>
+      </c>
+      <c r="P2">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q2">
+        <v>0.984375</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0.98828125</v>
+      </c>
+      <c r="T2">
+        <v>0.99609375</v>
+      </c>
+      <c r="U2">
+        <v>0.98828125</v>
+      </c>
+      <c r="V2">
+        <v>0.99609375</v>
+      </c>
+      <c r="W2">
+        <v>0.98046875</v>
+      </c>
+      <c r="X2">
+        <v>0.9765625</v>
+      </c>
+      <c r="Y2">
+        <v>0.98828125</v>
+      </c>
+      <c r="Z2">
+        <v>0.984375</v>
+      </c>
+      <c r="AA2">
+        <v>0.9921875</v>
+      </c>
+      <c r="AB2">
+        <v>0.9765625</v>
+      </c>
+      <c r="AC2">
+        <v>0.99609375</v>
+      </c>
+    </row>
+    <row r="3" spans="4:29">
+      <c r="D3">
+        <v>0.98828125</v>
+      </c>
+      <c r="E3">
+        <v>0.98046875</v>
+      </c>
+      <c r="F3">
+        <v>0.98828125</v>
+      </c>
+      <c r="G3">
+        <v>0.99609375</v>
+      </c>
+      <c r="H3">
+        <v>0.98046875</v>
+      </c>
+      <c r="I3">
+        <v>0.99609375</v>
+      </c>
+      <c r="J3">
+        <v>0.98828125</v>
+      </c>
+      <c r="K3">
+        <v>0.98828125</v>
+      </c>
+      <c r="L3">
+        <v>0.984375</v>
+      </c>
+      <c r="M3">
+        <v>0.9921875</v>
+      </c>
+      <c r="N3">
+        <v>0.98828125</v>
+      </c>
+      <c r="O3">
+        <v>0.98828125</v>
+      </c>
+      <c r="P3">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q3">
+        <v>0.984375</v>
+      </c>
+      <c r="R3">
+        <v>0.9921875</v>
+      </c>
+      <c r="S3">
+        <v>0.98828125</v>
+      </c>
+      <c r="T3">
+        <v>0.98828125</v>
+      </c>
+      <c r="U3">
+        <v>0.98828125</v>
+      </c>
+      <c r="V3">
+        <v>0.9921875</v>
+      </c>
+      <c r="W3">
+        <v>0.9765625</v>
+      </c>
+      <c r="X3">
+        <v>0.9765625</v>
+      </c>
+      <c r="Y3">
+        <v>0.9921875</v>
+      </c>
+      <c r="Z3">
+        <v>0.984375</v>
+      </c>
+      <c r="AA3">
+        <v>0.99609375</v>
+      </c>
+      <c r="AB3">
+        <v>0.98046875</v>
+      </c>
+      <c r="AC3">
+        <v>0.9921875</v>
+      </c>
+    </row>
+    <row r="4" spans="4:29">
+      <c r="D4">
+        <v>0.98046875</v>
+      </c>
+      <c r="E4">
+        <v>0.98828125</v>
+      </c>
+      <c r="F4">
+        <v>0.98046875</v>
+      </c>
+      <c r="G4">
+        <v>0.9921875</v>
+      </c>
+      <c r="H4">
+        <v>0.9765625</v>
+      </c>
+      <c r="I4">
+        <v>0.98828125</v>
+      </c>
+      <c r="J4">
+        <v>0.9765625</v>
+      </c>
+      <c r="K4">
+        <v>0.98828125</v>
+      </c>
+      <c r="L4">
+        <v>0.98046875</v>
+      </c>
+      <c r="M4">
+        <v>0.99609375</v>
+      </c>
+      <c r="N4">
+        <v>0.99609375</v>
+      </c>
+      <c r="O4">
+        <v>0.984375</v>
+      </c>
+      <c r="P4">
+        <v>0.98828125</v>
+      </c>
+      <c r="Q4">
+        <v>0.9765625</v>
+      </c>
+      <c r="R4">
+        <v>0.99609375</v>
+      </c>
+      <c r="S4">
+        <v>0.98828125</v>
+      </c>
+      <c r="T4">
+        <v>0.984375</v>
+      </c>
+      <c r="U4">
+        <v>0.984375</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0.9765625</v>
+      </c>
+      <c r="X4">
+        <v>0.97265625</v>
+      </c>
+      <c r="Y4">
+        <v>0.98046875</v>
+      </c>
+      <c r="Z4">
+        <v>0.98828125</v>
+      </c>
+      <c r="AA4">
+        <v>0.98828125</v>
+      </c>
+      <c r="AB4">
+        <v>0.9765625</v>
+      </c>
+      <c r="AC4">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="5" spans="4:29">
+      <c r="D5">
+        <v>0.97265625</v>
+      </c>
+      <c r="E5">
+        <v>0.97265625</v>
+      </c>
+      <c r="F5">
+        <v>0.9609375</v>
+      </c>
+      <c r="G5">
+        <v>0.9765625</v>
+      </c>
+      <c r="H5">
+        <v>0.9765625</v>
+      </c>
+      <c r="I5">
+        <v>0.9921875</v>
+      </c>
+      <c r="J5">
+        <v>0.9921875</v>
+      </c>
+      <c r="K5">
+        <v>0.9765625</v>
+      </c>
+      <c r="L5">
+        <v>0.9765625</v>
+      </c>
+      <c r="M5">
+        <v>0.98828125</v>
+      </c>
+      <c r="N5">
+        <v>0.9921875</v>
+      </c>
+      <c r="O5">
+        <v>0.9765625</v>
+      </c>
+      <c r="P5">
+        <v>0.984375</v>
+      </c>
+      <c r="Q5">
+        <v>0.97265625</v>
+      </c>
+      <c r="R5">
+        <v>0.99609375</v>
+      </c>
+      <c r="S5">
+        <v>0.98046875</v>
+      </c>
+      <c r="T5">
+        <v>0.984375</v>
+      </c>
+      <c r="U5">
+        <v>0.984375</v>
+      </c>
+      <c r="V5">
+        <v>0.99609375</v>
+      </c>
+      <c r="W5">
+        <v>0.984375</v>
+      </c>
+      <c r="X5">
+        <v>0.98046875</v>
+      </c>
+      <c r="Y5">
+        <v>0.9765625</v>
+      </c>
+      <c r="Z5">
+        <v>0.98828125</v>
+      </c>
+      <c r="AA5">
+        <v>0.984375</v>
+      </c>
+      <c r="AB5">
+        <v>0.9609375</v>
+      </c>
+      <c r="AC5">
+        <v>0.97265625</v>
+      </c>
+    </row>
+    <row r="6" spans="4:29">
+      <c r="D6">
+        <v>0.9609375</v>
+      </c>
+      <c r="E6">
+        <v>0.90234375</v>
+      </c>
+      <c r="F6">
+        <v>0.94140625</v>
+      </c>
+      <c r="G6">
+        <v>0.9140625</v>
+      </c>
+      <c r="H6">
+        <v>0.96875</v>
+      </c>
+      <c r="I6">
+        <v>0.9765625</v>
+      </c>
+      <c r="J6">
+        <v>0.88671875</v>
+      </c>
+      <c r="K6">
+        <v>0.9453125</v>
+      </c>
+      <c r="L6">
+        <v>0.93359375</v>
+      </c>
+      <c r="M6">
+        <v>0.9765625</v>
+      </c>
+      <c r="N6">
+        <v>0.9921875</v>
+      </c>
+      <c r="O6">
+        <v>0.96484375</v>
+      </c>
+      <c r="P6">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q6">
+        <v>0.9765625</v>
+      </c>
+      <c r="R6">
+        <v>0.96875</v>
+      </c>
+      <c r="S6">
+        <v>0.96484375</v>
+      </c>
+      <c r="T6">
+        <v>0.9609375</v>
+      </c>
+      <c r="U6">
+        <v>0.9765625</v>
+      </c>
+      <c r="V6">
+        <v>0.8515625</v>
+      </c>
+      <c r="W6">
+        <v>0.9609375</v>
+      </c>
+      <c r="X6">
+        <v>0.9296875</v>
+      </c>
+      <c r="Y6">
+        <v>0.9921875</v>
+      </c>
+      <c r="Z6">
+        <v>0.93359375</v>
+      </c>
+      <c r="AA6">
+        <v>0.9921875</v>
+      </c>
+      <c r="AB6">
+        <v>0.9453125</v>
+      </c>
+      <c r="AC6">
+        <v>0.95703125</v>
+      </c>
+    </row>
+    <row r="7" spans="4:29">
+      <c r="D7">
+        <v>0.984375</v>
+      </c>
+      <c r="E7">
+        <v>0.97265625</v>
+      </c>
+      <c r="F7">
+        <v>0.93359375</v>
+      </c>
+      <c r="G7">
+        <v>0.8359375</v>
+      </c>
+      <c r="H7">
+        <v>0.9296875</v>
+      </c>
+      <c r="I7">
+        <v>0.86328125</v>
+      </c>
+      <c r="J7">
+        <v>0.86328125</v>
+      </c>
+      <c r="K7">
+        <v>0.953125</v>
+      </c>
+      <c r="L7">
+        <v>0.8515625</v>
+      </c>
+      <c r="M7">
+        <v>0.9765625</v>
+      </c>
+      <c r="N7">
+        <v>0.93359375</v>
+      </c>
+      <c r="O7">
+        <v>0.8984375</v>
+      </c>
+      <c r="P7">
+        <v>0.95703125</v>
+      </c>
+      <c r="Q7">
+        <v>0.95703125</v>
+      </c>
+      <c r="R7">
+        <v>0.93359375</v>
+      </c>
+      <c r="S7">
+        <v>0.70703125</v>
+      </c>
+      <c r="T7">
+        <v>0.953125</v>
+      </c>
+      <c r="U7">
+        <v>0.9140625</v>
+      </c>
+      <c r="V7">
+        <v>0.96875</v>
+      </c>
+      <c r="W7">
+        <v>0.8984375</v>
+      </c>
+      <c r="X7">
+        <v>0.82421875</v>
+      </c>
+      <c r="Y7">
+        <v>0.8515625</v>
+      </c>
+      <c r="Z7">
+        <v>0.96484375</v>
+      </c>
+      <c r="AA7">
+        <v>0.90625</v>
+      </c>
+      <c r="AB7">
+        <v>0.9140625</v>
+      </c>
+      <c r="AC7">
+        <v>0.8828125</v>
+      </c>
+    </row>
+    <row r="10" spans="4:29">
+      <c r="D10">
+        <v>0.984375</v>
+      </c>
+      <c r="E10">
+        <v>0.984375</v>
+      </c>
+      <c r="F10">
+        <v>0.984375</v>
+      </c>
+      <c r="G10">
+        <v>0.99609375</v>
+      </c>
+      <c r="H10">
+        <v>0.9921875</v>
+      </c>
+      <c r="I10">
+        <v>0.99609375</v>
+      </c>
+      <c r="J10">
+        <v>0.984375</v>
+      </c>
+      <c r="K10">
+        <v>0.9921875</v>
+      </c>
+      <c r="L10">
+        <v>0.9921875</v>
+      </c>
+      <c r="M10">
+        <v>0.99609375</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0.9921875</v>
+      </c>
+      <c r="P10">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q10">
+        <v>0.984375</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0.98828125</v>
+      </c>
+      <c r="T10">
+        <v>0.99609375</v>
+      </c>
+      <c r="U10">
+        <v>0.98828125</v>
+      </c>
+      <c r="V10">
+        <v>0.99609375</v>
+      </c>
+      <c r="W10">
+        <v>0.98046875</v>
+      </c>
+      <c r="X10">
+        <v>0.9765625</v>
+      </c>
+      <c r="Y10">
+        <v>0.98828125</v>
+      </c>
+      <c r="Z10">
+        <v>0.984375</v>
+      </c>
+      <c r="AA10">
+        <v>0.9921875</v>
+      </c>
+      <c r="AB10">
+        <v>0.9765625</v>
+      </c>
+      <c r="AC10">
+        <v>0.99609375</v>
+      </c>
+    </row>
+    <row r="11" spans="4:29">
+      <c r="D11">
+        <v>0.984375</v>
+      </c>
+      <c r="E11">
+        <v>0.9765625</v>
+      </c>
+      <c r="F11">
+        <v>0.97265625</v>
+      </c>
+      <c r="G11">
+        <v>0.98828125</v>
+      </c>
+      <c r="H11">
+        <v>0.984375</v>
+      </c>
+      <c r="I11">
+        <v>0.99609375</v>
+      </c>
+      <c r="J11">
+        <v>0.98828125</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.98828125</v>
+      </c>
+      <c r="M11">
+        <v>0.9921875</v>
+      </c>
+      <c r="N11">
+        <v>0.99609375</v>
+      </c>
+      <c r="O11">
+        <v>0.9921875</v>
+      </c>
+      <c r="P11">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q11">
+        <v>0.984375</v>
+      </c>
+      <c r="R11">
+        <v>0.99609375</v>
+      </c>
+      <c r="S11">
+        <v>0.98828125</v>
+      </c>
+      <c r="T11">
+        <v>0.9921875</v>
+      </c>
+      <c r="U11">
+        <v>0.984375</v>
+      </c>
+      <c r="V11">
+        <v>0.99609375</v>
+      </c>
+      <c r="W11">
+        <v>0.9921875</v>
+      </c>
+      <c r="X11">
+        <v>0.96875</v>
+      </c>
+      <c r="Y11">
+        <v>0.98828125</v>
+      </c>
+      <c r="Z11">
+        <v>0.9765625</v>
+      </c>
+      <c r="AA11">
+        <v>0.9921875</v>
+      </c>
+      <c r="AB11">
+        <v>0.9765625</v>
+      </c>
+      <c r="AC11">
+        <v>0.98828125</v>
+      </c>
+    </row>
+    <row r="12" spans="4:29">
+      <c r="D12">
+        <v>0.95703125</v>
+      </c>
+      <c r="E12">
+        <v>0.9921875</v>
+      </c>
+      <c r="F12">
+        <v>0.92578125</v>
+      </c>
+      <c r="G12">
+        <v>0.953125</v>
+      </c>
+      <c r="H12">
+        <v>0.96484375</v>
+      </c>
+      <c r="I12">
+        <v>0.9765625</v>
+      </c>
+      <c r="J12">
+        <v>0.984375</v>
+      </c>
+      <c r="K12">
+        <v>0.96875</v>
+      </c>
+      <c r="L12">
+        <v>0.97265625</v>
+      </c>
+      <c r="M12">
+        <v>0.94921875</v>
+      </c>
+      <c r="N12">
+        <v>0.98828125</v>
+      </c>
+      <c r="O12">
+        <v>0.9453125</v>
+      </c>
+      <c r="P12">
+        <v>0.8515625</v>
+      </c>
+      <c r="Q12">
+        <v>0.96875</v>
+      </c>
+      <c r="R12">
+        <v>0.984375</v>
+      </c>
+      <c r="S12">
+        <v>0.85546875</v>
+      </c>
+      <c r="T12">
+        <v>0.9765625</v>
+      </c>
+      <c r="U12">
+        <v>0.9453125</v>
+      </c>
+      <c r="V12">
+        <v>0.96484375</v>
+      </c>
+      <c r="W12">
+        <v>0.953125</v>
+      </c>
+      <c r="X12">
+        <v>0.9375</v>
+      </c>
+      <c r="Y12">
+        <v>0.98046875</v>
+      </c>
+      <c r="Z12">
+        <v>0.9453125</v>
+      </c>
+      <c r="AA12">
+        <v>0.96484375</v>
+      </c>
+      <c r="AB12">
+        <v>0.96484375</v>
+      </c>
+      <c r="AC12">
+        <v>0.9296875</v>
+      </c>
+    </row>
+    <row r="13" spans="4:29">
+      <c r="D13">
+        <v>0.41796875</v>
+      </c>
+      <c r="E13">
+        <v>0.37109375</v>
+      </c>
+      <c r="F13">
+        <v>0.20703125</v>
+      </c>
+      <c r="G13">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.421875</v>
+      </c>
+      <c r="I13">
+        <v>0.203125</v>
+      </c>
+      <c r="J13">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.53515625</v>
+      </c>
+      <c r="L13">
+        <v>0.6796875</v>
+      </c>
+      <c r="M13">
+        <v>0.5546875</v>
+      </c>
+      <c r="N13">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.13671875</v>
+      </c>
+      <c r="P13">
+        <v>0.109375</v>
+      </c>
+      <c r="Q13">
+        <v>0.1796875</v>
+      </c>
+      <c r="R13">
+        <v>0.34765625</v>
+      </c>
+      <c r="S13">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="T13">
+        <v>0.24609375</v>
+      </c>
+      <c r="U13">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="V13">
+        <v>0.48046875</v>
+      </c>
+      <c r="W13">
+        <v>0.16796875</v>
+      </c>
+      <c r="X13">
+        <v>0.34375</v>
+      </c>
+      <c r="Y13">
+        <v>0.75390625</v>
+      </c>
+      <c r="Z13">
+        <v>0.13671875</v>
+      </c>
+      <c r="AA13">
+        <v>0.26171875</v>
+      </c>
+      <c r="AB13">
+        <v>0.328125</v>
+      </c>
+      <c r="AC13">
+        <v>5.46875E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:29">
+      <c r="D14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="G14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="H14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="I14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="J14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="K14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="L14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="M14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="N14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="O14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.109375</v>
+      </c>
+      <c r="Q14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="R14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="S14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="T14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="U14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="V14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="W14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="X14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="Y14">
+        <v>0.109375</v>
+      </c>
+      <c r="Z14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="AA14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="AB14">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="AC14">
+        <v>5.46875E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29">
+      <c r="D15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="F15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="G15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="H15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="I15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="J15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="K15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="L15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.109375</v>
+      </c>
+      <c r="N15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.984375E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.13671875</v>
+      </c>
+      <c r="Q15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="R15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="S15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="T15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="U15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="V15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="W15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="X15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="Y15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="Z15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="AA15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="AB15">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="AC15">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29">
+      <c r="D18">
+        <v>0.984375</v>
+      </c>
+      <c r="E18">
+        <v>0.984375</v>
+      </c>
+      <c r="F18">
+        <v>0.984375</v>
+      </c>
+      <c r="G18">
+        <v>0.99609375</v>
+      </c>
+      <c r="H18">
+        <v>0.9921875</v>
+      </c>
+      <c r="I18">
+        <v>0.99609375</v>
+      </c>
+      <c r="J18">
+        <v>0.984375</v>
+      </c>
+      <c r="K18">
+        <v>0.9921875</v>
+      </c>
+      <c r="L18">
+        <v>0.9921875</v>
+      </c>
+      <c r="M18">
+        <v>0.99609375</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0.9921875</v>
+      </c>
+      <c r="P18">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q18">
+        <v>0.984375</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.98828125</v>
+      </c>
+      <c r="T18">
+        <v>0.99609375</v>
+      </c>
+      <c r="U18">
+        <v>0.98828125</v>
+      </c>
+      <c r="V18">
+        <v>0.99609375</v>
+      </c>
+      <c r="W18">
+        <v>0.98046875</v>
+      </c>
+      <c r="X18">
+        <v>0.9765625</v>
+      </c>
+      <c r="Y18">
+        <v>0.98828125</v>
+      </c>
+      <c r="Z18">
+        <v>0.984375</v>
+      </c>
+      <c r="AA18">
+        <v>0.9921875</v>
+      </c>
+      <c r="AB18">
+        <v>0.9765625</v>
+      </c>
+      <c r="AC18">
+        <v>0.99609375</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29">
+      <c r="D19">
+        <v>0.98046875</v>
+      </c>
+      <c r="E19">
+        <v>0.9765625</v>
+      </c>
+      <c r="F19">
+        <v>0.9609375</v>
+      </c>
+      <c r="G19">
+        <v>0.9765625</v>
+      </c>
+      <c r="H19">
+        <v>0.98046875</v>
+      </c>
+      <c r="I19">
+        <v>0.97265625</v>
+      </c>
+      <c r="J19">
+        <v>0.9765625</v>
+      </c>
+      <c r="K19">
+        <v>0.9921875</v>
+      </c>
+      <c r="L19">
+        <v>0.98828125</v>
+      </c>
+      <c r="M19">
+        <v>0.984375</v>
+      </c>
+      <c r="N19">
+        <v>0.98046875</v>
+      </c>
+      <c r="O19">
+        <v>0.9921875</v>
+      </c>
+      <c r="P19">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q19">
+        <v>0.984375</v>
+      </c>
+      <c r="R19">
+        <v>0.9921875</v>
+      </c>
+      <c r="S19">
+        <v>0.984375</v>
+      </c>
+      <c r="T19">
+        <v>0.984375</v>
+      </c>
+      <c r="U19">
+        <v>0.9609375</v>
+      </c>
+      <c r="V19">
+        <v>0.97265625</v>
+      </c>
+      <c r="W19">
+        <v>0.99609375</v>
+      </c>
+      <c r="X19">
+        <v>0.96875</v>
+      </c>
+      <c r="Y19">
+        <v>0.9765625</v>
+      </c>
+      <c r="Z19">
+        <v>0.9765625</v>
+      </c>
+      <c r="AA19">
+        <v>0.9921875</v>
+      </c>
+      <c r="AB19">
+        <v>0.96875</v>
+      </c>
+      <c r="AC19">
+        <v>0.9921875</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29">
+      <c r="D20">
+        <v>0.9609375</v>
+      </c>
+      <c r="E20">
+        <v>0.96484375</v>
+      </c>
+      <c r="F20">
+        <v>0.96875</v>
+      </c>
+      <c r="G20">
+        <v>0.96484375</v>
+      </c>
+      <c r="H20">
+        <v>0.95703125</v>
+      </c>
+      <c r="I20">
+        <v>0.95703125</v>
+      </c>
+      <c r="J20">
+        <v>0.96484375</v>
+      </c>
+      <c r="K20">
+        <v>0.97265625</v>
+      </c>
+      <c r="L20">
+        <v>0.96875</v>
+      </c>
+      <c r="M20">
+        <v>0.9453125</v>
+      </c>
+      <c r="N20">
+        <v>0.9609375</v>
+      </c>
+      <c r="O20">
+        <v>0.97265625</v>
+      </c>
+      <c r="P20">
+        <v>0.98828125</v>
+      </c>
+      <c r="Q20">
+        <v>0.96484375</v>
+      </c>
+      <c r="R20">
+        <v>0.99609375</v>
+      </c>
+      <c r="S20">
+        <v>0.97265625</v>
+      </c>
+      <c r="T20">
+        <v>0.98046875</v>
+      </c>
+      <c r="U20">
+        <v>0.97265625</v>
+      </c>
+      <c r="V20">
+        <v>0.96484375</v>
+      </c>
+      <c r="W20">
+        <v>0.9765625</v>
+      </c>
+      <c r="X20">
+        <v>0.93359375</v>
+      </c>
+      <c r="Y20">
+        <v>0.984375</v>
+      </c>
+      <c r="Z20">
+        <v>0.96484375</v>
+      </c>
+      <c r="AA20">
+        <v>0.953125</v>
+      </c>
+      <c r="AB20">
+        <v>0.9296875</v>
+      </c>
+      <c r="AC20">
+        <v>0.95703125</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29">
+      <c r="D21">
+        <v>0.97265625</v>
+      </c>
+      <c r="E21">
+        <v>0.98046875</v>
+      </c>
+      <c r="F21">
+        <v>0.94921875</v>
+      </c>
+      <c r="G21">
+        <v>0.91796875</v>
+      </c>
+      <c r="H21">
+        <v>0.9609375</v>
+      </c>
+      <c r="I21">
+        <v>0.8828125</v>
+      </c>
+      <c r="J21">
+        <v>0.96484375</v>
+      </c>
+      <c r="K21">
+        <v>0.93359375</v>
+      </c>
+      <c r="L21">
+        <v>0.921875</v>
+      </c>
+      <c r="M21">
+        <v>0.9609375</v>
+      </c>
+      <c r="N21">
+        <v>0.97265625</v>
+      </c>
+      <c r="O21">
+        <v>0.96875</v>
+      </c>
+      <c r="P21">
+        <v>0.98828125</v>
+      </c>
+      <c r="Q21">
+        <v>0.94140625</v>
+      </c>
+      <c r="R21">
+        <v>0.97265625</v>
+      </c>
+      <c r="S21">
+        <v>0.93359375</v>
+      </c>
+      <c r="T21">
+        <v>0.9609375</v>
+      </c>
+      <c r="U21">
+        <v>0.96875</v>
+      </c>
+      <c r="V21">
+        <v>0.8828125</v>
+      </c>
+      <c r="W21">
+        <v>0.97265625</v>
+      </c>
+      <c r="X21">
+        <v>0.8984375</v>
+      </c>
+      <c r="Y21">
+        <v>0.9609375</v>
+      </c>
+      <c r="Z21">
+        <v>0.94140625</v>
+      </c>
+      <c r="AA21">
+        <v>0.921875</v>
+      </c>
+      <c r="AB21">
+        <v>0.90234375</v>
+      </c>
+      <c r="AC21">
+        <v>0.95703125</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29">
+      <c r="D22">
+        <v>0.97265625</v>
+      </c>
+      <c r="E22">
+        <v>0.9765625</v>
+      </c>
+      <c r="F22">
+        <v>0.91796875</v>
+      </c>
+      <c r="G22">
+        <v>0.86328125</v>
+      </c>
+      <c r="H22">
+        <v>0.9609375</v>
+      </c>
+      <c r="I22">
+        <v>0.8671875</v>
+      </c>
+      <c r="J22">
+        <v>0.9140625</v>
+      </c>
+      <c r="K22">
+        <v>0.9296875</v>
+      </c>
+      <c r="L22">
+        <v>0.8125</v>
+      </c>
+      <c r="M22">
+        <v>0.921875</v>
+      </c>
+      <c r="N22">
+        <v>0.9375</v>
+      </c>
+      <c r="O22">
+        <v>0.984375</v>
+      </c>
+      <c r="P22">
+        <v>0.984375</v>
+      </c>
+      <c r="Q22">
+        <v>0.96484375</v>
+      </c>
+      <c r="R22">
+        <v>0.98828125</v>
+      </c>
+      <c r="S22">
+        <v>0.890625</v>
+      </c>
+      <c r="T22">
+        <v>0.9453125</v>
+      </c>
+      <c r="U22">
+        <v>0.97265625</v>
+      </c>
+      <c r="V22">
+        <v>0.81640625</v>
+      </c>
+      <c r="W22">
+        <v>0.92578125</v>
+      </c>
+      <c r="X22">
+        <v>0.71484375</v>
+      </c>
+      <c r="Y22">
+        <v>0.9140625</v>
+      </c>
+      <c r="Z22">
+        <v>0.9375</v>
+      </c>
+      <c r="AA22">
+        <v>0.875</v>
+      </c>
+      <c r="AB22">
+        <v>0.9140625</v>
+      </c>
+      <c r="AC22">
+        <v>0.9140625</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23">
+        <v>0.9609375</v>
+      </c>
+      <c r="E23">
+        <v>0.91796875</v>
+      </c>
+      <c r="F23">
+        <v>0.91796875</v>
+      </c>
+      <c r="G23">
+        <v>0.85546875</v>
+      </c>
+      <c r="H23">
+        <v>0.890625</v>
+      </c>
+      <c r="I23">
+        <v>0.7109375</v>
+      </c>
+      <c r="J23">
+        <v>0.86328125</v>
+      </c>
+      <c r="K23">
+        <v>0.87109375</v>
+      </c>
+      <c r="L23">
+        <v>0.6640625</v>
+      </c>
+      <c r="M23">
+        <v>0.67578125</v>
+      </c>
+      <c r="N23">
+        <v>0.9296875</v>
+      </c>
+      <c r="O23">
+        <v>0.97265625</v>
+      </c>
+      <c r="P23">
+        <v>0.984375</v>
+      </c>
+      <c r="Q23">
+        <v>0.9140625</v>
+      </c>
+      <c r="R23">
+        <v>0.96875</v>
+      </c>
+      <c r="S23">
+        <v>0.8515625</v>
+      </c>
+      <c r="T23">
+        <v>0.92578125</v>
+      </c>
+      <c r="U23">
+        <v>0.96875</v>
+      </c>
+      <c r="V23">
+        <v>0.703125</v>
+      </c>
+      <c r="W23">
+        <v>0.88671875</v>
+      </c>
+      <c r="X23">
+        <v>0.47265625</v>
+      </c>
+      <c r="Y23">
+        <v>0.75</v>
+      </c>
+      <c r="Z23">
+        <v>0.81640625</v>
+      </c>
+      <c r="AA23">
+        <v>0.7265625</v>
+      </c>
+      <c r="AB23">
+        <v>0.8828125</v>
+      </c>
+      <c r="AC23">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29">
+      <c r="D26">
+        <v>0.984375</v>
+      </c>
+      <c r="E26">
+        <v>0.984375</v>
+      </c>
+      <c r="F26">
+        <v>0.984375</v>
+      </c>
+      <c r="G26">
+        <v>0.99609375</v>
+      </c>
+      <c r="H26">
+        <v>0.9921875</v>
+      </c>
+      <c r="I26">
+        <v>0.99609375</v>
+      </c>
+      <c r="J26">
+        <v>0.984375</v>
+      </c>
+      <c r="K26">
+        <v>0.9921875</v>
+      </c>
+      <c r="L26">
+        <v>0.9921875</v>
+      </c>
+      <c r="M26">
+        <v>0.99609375</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0.9921875</v>
+      </c>
+      <c r="P26">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q26">
+        <v>0.984375</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0.98828125</v>
+      </c>
+      <c r="T26">
+        <v>0.99609375</v>
+      </c>
+      <c r="U26">
+        <v>0.98828125</v>
+      </c>
+      <c r="V26">
+        <v>0.99609375</v>
+      </c>
+      <c r="W26">
+        <v>0.98046875</v>
+      </c>
+      <c r="X26">
+        <v>0.9765625</v>
+      </c>
+      <c r="Y26">
+        <v>0.98828125</v>
+      </c>
+      <c r="Z26">
+        <v>0.984375</v>
+      </c>
+      <c r="AA26">
+        <v>0.9921875</v>
+      </c>
+      <c r="AB26">
+        <v>0.9765625</v>
+      </c>
+      <c r="AC26">
+        <v>0.99609375</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29">
+      <c r="D27">
+        <v>0.984375</v>
+      </c>
+      <c r="E27">
+        <v>0.984375</v>
+      </c>
+      <c r="F27">
+        <v>0.97265625</v>
+      </c>
+      <c r="G27">
+        <v>0.99609375</v>
+      </c>
+      <c r="H27">
+        <v>0.98828125</v>
+      </c>
+      <c r="I27">
+        <v>0.98046875</v>
+      </c>
+      <c r="J27">
+        <v>0.984375</v>
+      </c>
+      <c r="K27">
+        <v>0.99609375</v>
+      </c>
+      <c r="L27">
+        <v>0.98828125</v>
+      </c>
+      <c r="M27">
+        <v>0.98828125</v>
+      </c>
+      <c r="N27">
+        <v>0.99609375</v>
+      </c>
+      <c r="O27">
+        <v>0.9921875</v>
+      </c>
+      <c r="P27">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q27">
+        <v>0.984375</v>
+      </c>
+      <c r="R27">
+        <v>0.99609375</v>
+      </c>
+      <c r="S27">
+        <v>0.98828125</v>
+      </c>
+      <c r="T27">
+        <v>0.984375</v>
+      </c>
+      <c r="U27">
+        <v>0.98046875</v>
+      </c>
+      <c r="V27">
+        <v>0.9921875</v>
+      </c>
+      <c r="W27">
+        <v>0.98046875</v>
+      </c>
+      <c r="X27">
+        <v>0.9765625</v>
+      </c>
+      <c r="Y27">
+        <v>0.98828125</v>
+      </c>
+      <c r="Z27">
+        <v>0.9765625</v>
+      </c>
+      <c r="AA27">
+        <v>0.99609375</v>
+      </c>
+      <c r="AB27">
+        <v>0.98046875</v>
+      </c>
+      <c r="AC27">
+        <v>0.98828125</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29">
+      <c r="D28">
+        <v>0.984375</v>
+      </c>
+      <c r="E28">
+        <v>0.9921875</v>
+      </c>
+      <c r="F28">
+        <v>0.97265625</v>
+      </c>
+      <c r="G28">
+        <v>0.98046875</v>
+      </c>
+      <c r="H28">
+        <v>0.98828125</v>
+      </c>
+      <c r="I28">
+        <v>0.984375</v>
+      </c>
+      <c r="J28">
+        <v>0.984375</v>
+      </c>
+      <c r="K28">
+        <v>0.9921875</v>
+      </c>
+      <c r="L28">
+        <v>0.98828125</v>
+      </c>
+      <c r="M28">
+        <v>0.98828125</v>
+      </c>
+      <c r="N28">
+        <v>0.9921875</v>
+      </c>
+      <c r="O28">
+        <v>0.98828125</v>
+      </c>
+      <c r="P28">
+        <v>0.984375</v>
+      </c>
+      <c r="Q28">
+        <v>0.98046875</v>
+      </c>
+      <c r="R28">
+        <v>0.9921875</v>
+      </c>
+      <c r="S28">
+        <v>0.98828125</v>
+      </c>
+      <c r="T28">
+        <v>0.984375</v>
+      </c>
+      <c r="U28">
+        <v>0.97265625</v>
+      </c>
+      <c r="V28">
+        <v>0.98828125</v>
+      </c>
+      <c r="W28">
+        <v>0.9765625</v>
+      </c>
+      <c r="X28">
+        <v>0.96484375</v>
+      </c>
+      <c r="Y28">
+        <v>0.98828125</v>
+      </c>
+      <c r="Z28">
+        <v>0.96875</v>
+      </c>
+      <c r="AA28">
+        <v>0.99609375</v>
+      </c>
+      <c r="AB28">
+        <v>0.96875</v>
+      </c>
+      <c r="AC28">
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29">
+      <c r="D29">
+        <v>0.98828125</v>
+      </c>
+      <c r="E29">
+        <v>0.9921875</v>
+      </c>
+      <c r="F29">
+        <v>0.96875</v>
+      </c>
+      <c r="G29">
+        <v>0.96484375</v>
+      </c>
+      <c r="H29">
+        <v>0.984375</v>
+      </c>
+      <c r="I29">
+        <v>0.98828125</v>
+      </c>
+      <c r="J29">
+        <v>0.98046875</v>
+      </c>
+      <c r="K29">
+        <v>0.97265625</v>
+      </c>
+      <c r="L29">
+        <v>0.984375</v>
+      </c>
+      <c r="M29">
+        <v>0.9765625</v>
+      </c>
+      <c r="N29">
+        <v>0.99609375</v>
+      </c>
+      <c r="O29">
+        <v>0.9921875</v>
+      </c>
+      <c r="P29">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q29">
+        <v>0.98046875</v>
+      </c>
+      <c r="R29">
+        <v>0.98828125</v>
+      </c>
+      <c r="S29">
+        <v>0.98046875</v>
+      </c>
+      <c r="T29">
+        <v>0.96484375</v>
+      </c>
+      <c r="U29">
+        <v>0.95703125</v>
+      </c>
+      <c r="V29">
+        <v>0.97265625</v>
+      </c>
+      <c r="W29">
+        <v>0.9609375</v>
+      </c>
+      <c r="X29">
+        <v>0.953125</v>
+      </c>
+      <c r="Y29">
+        <v>0.98046875</v>
+      </c>
+      <c r="Z29">
+        <v>0.97265625</v>
+      </c>
+      <c r="AA29">
+        <v>0.98828125</v>
+      </c>
+      <c r="AB29">
+        <v>0.96875</v>
+      </c>
+      <c r="AC29">
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29">
+      <c r="D30">
+        <v>0.98828125</v>
+      </c>
+      <c r="E30">
+        <v>0.9921875</v>
+      </c>
+      <c r="F30">
+        <v>0.96875</v>
+      </c>
+      <c r="G30">
+        <v>0.9609375</v>
+      </c>
+      <c r="H30">
+        <v>0.984375</v>
+      </c>
+      <c r="I30">
+        <v>0.98046875</v>
+      </c>
+      <c r="J30">
+        <v>0.984375</v>
+      </c>
+      <c r="K30">
+        <v>0.984375</v>
+      </c>
+      <c r="L30">
+        <v>0.98828125</v>
+      </c>
+      <c r="M30">
+        <v>0.97265625</v>
+      </c>
+      <c r="N30">
+        <v>0.9921875</v>
+      </c>
+      <c r="O30">
+        <v>0.99609375</v>
+      </c>
+      <c r="P30">
+        <v>0.98828125</v>
+      </c>
+      <c r="Q30">
+        <v>0.98046875</v>
+      </c>
+      <c r="R30">
+        <v>0.98828125</v>
+      </c>
+      <c r="S30">
+        <v>0.98828125</v>
+      </c>
+      <c r="T30">
+        <v>0.96875</v>
+      </c>
+      <c r="U30">
+        <v>0.9765625</v>
+      </c>
+      <c r="V30">
+        <v>0.9609375</v>
+      </c>
+      <c r="W30">
+        <v>0.9609375</v>
+      </c>
+      <c r="X30">
+        <v>0.890625</v>
+      </c>
+      <c r="Y30">
+        <v>0.9765625</v>
+      </c>
+      <c r="Z30">
+        <v>0.96875</v>
+      </c>
+      <c r="AA30">
+        <v>0.96484375</v>
+      </c>
+      <c r="AB30">
+        <v>0.95703125</v>
+      </c>
+      <c r="AC30">
+        <v>0.97265625</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29">
+      <c r="D31">
+        <v>0.984375</v>
+      </c>
+      <c r="E31">
+        <v>0.984375</v>
+      </c>
+      <c r="F31">
+        <v>0.95703125</v>
+      </c>
+      <c r="G31">
+        <v>0.95703125</v>
+      </c>
+      <c r="H31">
+        <v>0.98046875</v>
+      </c>
+      <c r="I31">
+        <v>0.97265625</v>
+      </c>
+      <c r="J31">
+        <v>0.97265625</v>
+      </c>
+      <c r="K31">
+        <v>0.9765625</v>
+      </c>
+      <c r="L31">
+        <v>0.96875</v>
+      </c>
+      <c r="M31">
+        <v>0.96875</v>
+      </c>
+      <c r="N31">
+        <v>0.984375</v>
+      </c>
+      <c r="O31">
+        <v>0.99609375</v>
+      </c>
+      <c r="P31">
+        <v>0.9921875</v>
+      </c>
+      <c r="Q31">
+        <v>0.9765625</v>
+      </c>
+      <c r="R31">
+        <v>0.98046875</v>
+      </c>
+      <c r="S31">
+        <v>0.98046875</v>
+      </c>
+      <c r="T31">
+        <v>0.9609375</v>
+      </c>
+      <c r="U31">
+        <v>0.9765625</v>
+      </c>
+      <c r="V31">
+        <v>0.94140625</v>
+      </c>
+      <c r="W31">
+        <v>0.95703125</v>
+      </c>
+      <c r="X31">
+        <v>0.87109375</v>
+      </c>
+      <c r="Y31">
+        <v>0.94921875</v>
+      </c>
+      <c r="Z31">
+        <v>0.96484375</v>
+      </c>
+      <c r="AA31">
+        <v>0.95703125</v>
+      </c>
+      <c r="AB31">
+        <v>0.953125</v>
+      </c>
+      <c r="AC31">
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGE(D2:AC2)</f>
+        <v>0.98978365384615385</v>
+      </c>
+      <c r="E36">
+        <f>AVERAGE(D10:AC10)</f>
+        <v>0.98978365384615385</v>
+      </c>
+      <c r="F36">
+        <f>AVERAGE(D18:AC18)</f>
+        <v>0.98978365384615385</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(D26:AC26)</f>
+        <v>0.98978365384615385</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D41" si="0">AVERAGE(D3:AC3)</f>
+        <v>0.98783052884615385</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:E41" si="1">AVERAGE(D11:AC11)</f>
+        <v>0.98753004807692313</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F41" si="2">AVERAGE(D19:AC19)</f>
+        <v>0.98091947115384615</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G41" si="3">AVERAGE(D27:AC27)</f>
+        <v>0.98677884615384615</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.98452524038461542</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0.95387620192307687</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.96529447115384615</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.98362379807692313</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.98076923076923073</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0.27734375</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.94576322115384615</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.97791466346153844</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.95252403846153844</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>5.8894230769230768E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0.916015625</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.97445913461538458</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.90880408653846156</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>6.3401442307692304E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0.84450120192307687</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.96694711538461542</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>